--- a/vmes-file/fileUpload/excelTemplet/备件仓库货品导入.xlsx
+++ b/vmes-file/fileUpload/excelTemplet/备件仓库货品导入.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>productCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,10 +30,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>productGenreName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>productUnitName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -55,10 +51,6 @@
   </si>
   <si>
     <t>库存数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>货品属性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -417,18 +409,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D2" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="7" width="15.75" customWidth="1"/>
+    <col min="1" max="6" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -444,28 +436,22 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
